--- a/forecast_summary_B0BZQ1PWGJ.xlsx
+++ b/forecast_summary_B0BZQ1PWGJ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>126.8956790393433</v>
       </c>
       <c r="D2" t="n">
-        <v>175.0472143275568</v>
+        <v>173.8768988739252</v>
       </c>
       <c r="E2" t="n">
         <v>114</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="n">
         <v>124.9217661352596</v>
       </c>
       <c r="D3" t="n">
-        <v>171.8391956859436</v>
+        <v>170.5342960407635</v>
       </c>
       <c r="E3" t="n">
         <v>90</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>109.9883103977619</v>
       </c>
       <c r="D4" t="n">
-        <v>156.3941975466395</v>
+        <v>159.9369162493385</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="n">
         <v>87.09742947965269</v>
       </c>
       <c r="D5" t="n">
-        <v>135.9261066536139</v>
+        <v>130.6907883330236</v>
       </c>
       <c r="E5" t="n">
         <v>75</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
         <v>74.70619309685354</v>
       </c>
       <c r="D6" t="n">
-        <v>124.1114691343239</v>
+        <v>121.2080001383019</v>
       </c>
       <c r="E6" t="n">
         <v>75</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>85.81285333251495</v>
       </c>
       <c r="D7" t="n">
-        <v>133.0044547818962</v>
+        <v>138.3570692173093</v>
       </c>
       <c r="E7" t="n">
         <v>78</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>111.5178960007471</v>
       </c>
       <c r="D8" t="n">
-        <v>160.085141047913</v>
+        <v>158.505526607065</v>
       </c>
       <c r="E8" t="n">
         <v>78</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" t="n">
         <v>129.858054971377</v>
       </c>
       <c r="D9" t="n">
-        <v>171.7310671350936</v>
+        <v>178.1016356157654</v>
       </c>
       <c r="E9" t="n">
         <v>77</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="n">
         <v>130.7133485578397</v>
       </c>
       <c r="D10" t="n">
-        <v>178.4095594535929</v>
+        <v>181.3951301340748</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>126.0997149250386</v>
       </c>
       <c r="D11" t="n">
-        <v>174.0350780801385</v>
+        <v>176.7097808048971</v>
       </c>
       <c r="E11" t="n">
         <v>76</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>133.1603203187719</v>
       </c>
       <c r="D12" t="n">
-        <v>183.741336313594</v>
+        <v>180.5448743630039</v>
       </c>
       <c r="E12" t="n">
         <v>79</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>151.7601732397232</v>
       </c>
       <c r="D13" t="n">
-        <v>200.9828893014325</v>
+        <v>199.6780771107223</v>
       </c>
       <c r="E13" t="n">
         <v>79</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>164.851375612981</v>
       </c>
       <c r="D14" t="n">
-        <v>213.2949293092285</v>
+        <v>214.9402084013591</v>
       </c>
       <c r="E14" t="n">
         <v>77</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" t="n">
         <v>159.8730652034963</v>
       </c>
       <c r="D15" t="n">
-        <v>204.2406813099651</v>
+        <v>209.6732452766922</v>
       </c>
       <c r="E15" t="n">
         <v>77</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>142.822721539386</v>
       </c>
       <c r="D16" t="n">
-        <v>191.0227458021668</v>
+        <v>190.7841347689445</v>
       </c>
       <c r="E16" t="n">
         <v>75</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>127.8014260583995</v>
       </c>
       <c r="D17" t="n">
-        <v>177.7061413426913</v>
+        <v>175.7808938150636</v>
       </c>
       <c r="E17" t="n">
         <v>75</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>117.9454274993762</v>
       </c>
       <c r="D18" t="n">
-        <v>164.1363484369961</v>
+        <v>168.8153216946155</v>
       </c>
       <c r="E18" t="n">
         <v>68</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>104.1074203047288</v>
       </c>
       <c r="D19" t="n">
-        <v>152.3863139471992</v>
+        <v>153.2264208741622</v>
       </c>
       <c r="E19" t="n">
         <v>69</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>81.96147394144315</v>
       </c>
       <c r="D20" t="n">
-        <v>128.7696408080425</v>
+        <v>128.7316251426098</v>
       </c>
       <c r="E20" t="n">
         <v>73</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>62.05654010213964</v>
       </c>
       <c r="D21" t="n">
-        <v>108.7579789278104</v>
+        <v>110.9411311405228</v>
       </c>
       <c r="E21" t="n">
         <v>66</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760M C</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>888</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>467</t>
         </is>
       </c>
     </row>
